--- a/biology/Zoologie/Ariasa_colombiae/Ariasa_colombiae.xlsx
+++ b/biology/Zoologie/Ariasa_colombiae/Ariasa_colombiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ariasa colombiae est une espèce d'insectes hémiptères de la famille des Cicadidae (cigales), de la sous-famille des Cicadinae et du genre Ariasa.
 </t>
@@ -511,12 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrite par l'entomologiste britannique William Lucas Distant en 1892, sous le nom initial de Tympanoterpes colombiae.
-Synonymie
-Tympanoterpes colombiae Distant, 1892 - protonyme
-</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Décrite par l'entomologiste britannique William Lucas Distant en 1892, sous le nom initial de Tympanoterpes colombiae.</t>
         </is>
       </c>
     </row>
@@ -541,12 +552,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèce guyano-amazonienne de taille moyenne.
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tympanoterpes colombiae Distant, 1892 - protonyme
 </t>
         </is>
       </c>
@@ -572,10 +589,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce guyano-amazonienne de taille moyenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ariasa_colombiae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ariasa_colombiae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est corticicole.
 Sur les autres projets Wikimedia :
